--- a/ARE.xlsx
+++ b/ARE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE95B34-B2F3-4A9B-B038-2ACBF41C9610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2639395-E9B8-4455-A87D-980E8FB3E259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="554">
   <si>
     <t>رقم القطعة</t>
   </si>
@@ -1321,6 +1321,381 @@
   </si>
   <si>
     <t>Pair of Pink Opaline Candlesticks</t>
+  </si>
+  <si>
+    <t>Opaline vases with bronze base</t>
+  </si>
+  <si>
+    <t>Opaline flower pineapple pot</t>
+  </si>
+  <si>
+    <t>Green Ottoman sarm</t>
+  </si>
+  <si>
+    <t>Moroccan necklace, old frame, black thread center</t>
+  </si>
+  <si>
+    <t>Moroccan necklace, old frame, blue thread center</t>
+  </si>
+  <si>
+    <t>Iranian vase, porcelain, blue, inlaid pottery</t>
+  </si>
+  <si>
+    <t>Transparent decorated Bohemian vase</t>
+  </si>
+  <si>
+    <t>Navy graffiti pair, large size</t>
+  </si>
+  <si>
+    <t>Blue French lantern pair</t>
+  </si>
+  <si>
+    <t>Blue Bohemian lantern pair</t>
+  </si>
+  <si>
+    <t>Turquoise Bohemian lantern large</t>
+  </si>
+  <si>
+    <t>Blue and white Czech step boss pair</t>
+  </si>
+  <si>
+    <t>Moroccan Luban frame, various types of stones, large</t>
+  </si>
+  <si>
+    <t>Moroccan Luban frame, various types of stones, small</t>
+  </si>
+  <si>
+    <t>Sea lion fang candlestick with silver</t>
+  </si>
+  <si>
+    <t>French Bohemian red box with silver elephant handle</t>
+  </si>
+  <si>
+    <t>Green and black opaline walnuts</t>
+  </si>
+  <si>
+    <t>White transparent opaline cup</t>
+  </si>
+  <si>
+    <t>French Limoges navy box</t>
+  </si>
+  <si>
+    <t>Manuscript plaque of supplications</t>
+  </si>
+  <si>
+    <t>Ottoman calligraphy plaque (The head of wisdom is the fear of God) Ottoman calligrapher Rasan</t>
+  </si>
+  <si>
+    <t>Hameed al-Ghasi calligraphy plaque</t>
+  </si>
+  <si>
+    <t>Iranian saffron sprinklers</t>
+  </si>
+  <si>
+    <t>Bohemian box with French bronze</t>
+  </si>
+  <si>
+    <t>Crystal box with bronze</t>
+  </si>
+  <si>
+    <t>Large frame Moroccan necklace with different stones</t>
+  </si>
+  <si>
+    <t>Syrian seashell caskets</t>
+  </si>
+  <si>
+    <t>Copper applique nut</t>
+  </si>
+  <si>
+    <t>Ottoman sirma silver frame</t>
+  </si>
+  <si>
+    <t>Moroccan wood and brass table</t>
+  </si>
+  <si>
+    <t>Opaline vases with a picture of a gazelle head</t>
+  </si>
+  <si>
+    <t>Red Bohemian graffiti pair / 2</t>
+  </si>
+  <si>
+    <t>Red Bohemian sprinklers pair / 2</t>
+  </si>
+  <si>
+    <t>Blue and green French maison plates pair, pictured</t>
+  </si>
+  <si>
+    <t>Syrian consul, 5 drawers, wooden</t>
+  </si>
+  <si>
+    <t>Ottoman sarm, large, burgundy</t>
+  </si>
+  <si>
+    <t>Transparent base cup, Italian blue</t>
+  </si>
+  <si>
+    <t>Consul with mirror, Syrian seashell</t>
+  </si>
+  <si>
+    <t>Opaline walnut, illustrated, rose, beige, vertical, brown</t>
+  </si>
+  <si>
+    <t>Opaline walnut, illustrated, French</t>
+  </si>
+  <si>
+    <t>Opaline walnut, illustrated, medium-sized, white and yellow rose</t>
+  </si>
+  <si>
+    <t>Opaline single, green color, vase</t>
+  </si>
+  <si>
+    <t>Opaline walnut, white, gilded and green flower</t>
+  </si>
+  <si>
+    <t>Opaline walnut, rose yellow</t>
+  </si>
+  <si>
+    <t>Opaline walnut, large-sized, illustrated, maroon walnut</t>
+  </si>
+  <si>
+    <t>Opaline vase, large-sized, illustrated and signed</t>
+  </si>
+  <si>
+    <t>3-door cabinet, Syrian-Arab workshop, Ottoman era, seashell, 120 years old</t>
+  </si>
+  <si>
+    <t>Lemon-colored walnuts</t>
+  </si>
+  <si>
+    <t>3-piece set, parvatin walnuts with plate</t>
+  </si>
+  <si>
+    <t>Bohemian green gilded box</t>
+  </si>
+  <si>
+    <t>Navy walnut Oriental vases</t>
+  </si>
+  <si>
+    <t>French navy blue box illustrated with bronze</t>
+  </si>
+  <si>
+    <t>French Limoges egg walnut navy blue with bronze</t>
+  </si>
+  <si>
+    <t>3-piece set of fat and meat vases</t>
+  </si>
+  <si>
+    <t>Opaline fat and meat hookah</t>
+  </si>
+  <si>
+    <t>Small frame colored stones crystal</t>
+  </si>
+  <si>
+    <t>Old Syrian mother of pearl two-door cabinet</t>
+  </si>
+  <si>
+    <t>Indian bone chairs pair Maharaja</t>
+  </si>
+  <si>
+    <t>Desk with chair with drawer unit Old Syrian mother of pearl</t>
+  </si>
+  <si>
+    <t>Old Iranian wool carpet Hazrat Suleiman</t>
+  </si>
+  <si>
+    <t>Ayat al-Kursi plaque with a reed</t>
+  </si>
+  <si>
+    <t>Italian marble columns pair with bronze</t>
+  </si>
+  <si>
+    <t>Large old Syrian mother of pearl mirror</t>
+  </si>
+  <si>
+    <t>French bronze camel sculptural walnut</t>
+  </si>
+  <si>
+    <t>Saffron vases pair with white steppe ute</t>
+  </si>
+  <si>
+    <t>Blue lanterns</t>
+  </si>
+  <si>
+    <t>Green vase with a picture of a gazelle head</t>
+  </si>
+  <si>
+    <t>3-piece set of French opaline for the Islamic market antique</t>
+  </si>
+  <si>
+    <t>Illustrated bronze French box</t>
+  </si>
+  <si>
+    <t>Black bohemian box with bronze</t>
+  </si>
+  <si>
+    <t>Illustrated black round box</t>
+  </si>
+  <si>
+    <t>Old Syrian display cabinet with shell</t>
+  </si>
+  <si>
+    <t>Wool carpet walnuts with Iranian silk inlay / 2</t>
+  </si>
+  <si>
+    <t>2 rooster figurines</t>
+  </si>
+  <si>
+    <t>3-piece bronze ballerina set figurines</t>
+  </si>
+  <si>
+    <t>Porcelain rooster figurines / 2</t>
+  </si>
+  <si>
+    <t>White elephant figurine with wooden base</t>
+  </si>
+  <si>
+    <t>English porcelain tiger figurine</t>
+  </si>
+  <si>
+    <t>Glass turtle figurine</t>
+  </si>
+  <si>
+    <t>Gemstone elephant figurine (good stone)</t>
+  </si>
+  <si>
+    <t>Vertical turquoise lizard figurine</t>
+  </si>
+  <si>
+    <t>Horizontal turquoise lizard figurine</t>
+  </si>
+  <si>
+    <t>Turquoise crocodile figurine</t>
+  </si>
+  <si>
+    <t>Medium Syrian shell mirrors</t>
+  </si>
+  <si>
+    <t>Large Ottoman sirma with silver and silk threads</t>
+  </si>
+  <si>
+    <t>Black sirmat figurines with gold trim</t>
+  </si>
+  <si>
+    <t>Back shell boxes Turtle</t>
+  </si>
+  <si>
+    <t>French yellow and pink vase nut</t>
+  </si>
+  <si>
+    <t>Moroccan vertical large painting</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the middle of a picture of an old man</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the middle of a picture of a desert</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the middle of a picture of a woman</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the middle of a square picture of a desert ... woman gold frame</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the middle of a picture of a woman gold frame</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the picture of a horse vertical</t>
+  </si>
+  <si>
+    <t>Moroccan painting in the picture of a horse square</t>
+  </si>
+  <si>
+    <t>Bedouin Arabic Painting Gold Frame</t>
+  </si>
+  <si>
+    <t>Moroccan Souq Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Woman with Pottery Painting</t>
+  </si>
+  <si>
+    <t>Bird Visit Painting</t>
+  </si>
+  <si>
+    <t>Large Moroccan Painting in Lily</t>
+  </si>
+  <si>
+    <t>Kadoddle Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Square Woman with Jar Gold and Red Frame</t>
+  </si>
+  <si>
+    <t>Western Souq Painting in Scalet</t>
+  </si>
+  <si>
+    <t>Moroccan Wood and Brass Table</t>
+  </si>
+  <si>
+    <t>Black Frame Body Painting with Silver</t>
+  </si>
+  <si>
+    <t>Colored Moroccan Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Woman Gold Frame Painting</t>
+  </si>
+  <si>
+    <t>Biro Shell with Small Mirror</t>
+  </si>
+  <si>
+    <t>European Cabinet 2 Doors Wood with French Picture</t>
+  </si>
+  <si>
+    <t>European Cabinet 3 Doors Wood English</t>
+  </si>
+  <si>
+    <t>4 Piece Set Opaline White</t>
+  </si>
+  <si>
+    <t>White Opaline Perfume Bottles Stainless Steel 2 Pieces</t>
+  </si>
+  <si>
+    <t>White Opaline Lantern Single Small</t>
+  </si>
+  <si>
+    <t>White Opaline Lantern Single Medium</t>
+  </si>
+  <si>
+    <t>White Decorated Perfume Box</t>
+  </si>
+  <si>
+    <t>White Decorated Perfume Vase</t>
+  </si>
+  <si>
+    <t>Small Rose Perfume Vase</t>
+  </si>
+  <si>
+    <t>White Perfume Box Decorated with Gold</t>
+  </si>
+  <si>
+    <t>White Opaline Cup</t>
+  </si>
+  <si>
+    <t>Blue Opaline Chandeliers</t>
+  </si>
+  <si>
+    <t>White and Blue</t>
+  </si>
+  <si>
+    <t>Tharya Step Pot White and Blue</t>
+  </si>
+  <si>
+    <t>French Brass Candlestick Nut with Navy Blue Picture</t>
+  </si>
+  <si>
+    <t>French Pure Brass Candlestick</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2576,6 +2951,9 @@
       <c r="B45" t="s">
         <v>103</v>
       </c>
+      <c r="C45" t="s">
+        <v>429</v>
+      </c>
       <c r="D45">
         <v>1200</v>
       </c>
@@ -2593,6 +2971,9 @@
       <c r="B46" t="s">
         <v>105</v>
       </c>
+      <c r="C46" t="s">
+        <v>459</v>
+      </c>
       <c r="D46">
         <v>1100</v>
       </c>
@@ -2610,6 +2991,9 @@
       <c r="B47" t="s">
         <v>107</v>
       </c>
+      <c r="C47" t="s">
+        <v>430</v>
+      </c>
       <c r="D47">
         <v>1200</v>
       </c>
@@ -2627,6 +3011,9 @@
       <c r="B48" t="s">
         <v>109</v>
       </c>
+      <c r="C48" t="s">
+        <v>431</v>
+      </c>
       <c r="D48">
         <v>1200</v>
       </c>
@@ -2644,6 +3031,9 @@
       <c r="B49" t="s">
         <v>111</v>
       </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
       <c r="D49">
         <v>2000</v>
       </c>
@@ -2661,6 +3051,9 @@
       <c r="B50" t="s">
         <v>113</v>
       </c>
+      <c r="C50" t="s">
+        <v>461</v>
+      </c>
       <c r="D50">
         <v>400</v>
       </c>
@@ -2678,6 +3071,9 @@
       <c r="B51" t="s">
         <v>115</v>
       </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51">
         <v>1200</v>
       </c>
@@ -2695,6 +3091,9 @@
       <c r="B52" t="s">
         <v>118</v>
       </c>
+      <c r="C52" t="s">
+        <v>433</v>
+      </c>
       <c r="D52">
         <v>1200</v>
       </c>
@@ -2712,6 +3111,9 @@
       <c r="B53" t="s">
         <v>120</v>
       </c>
+      <c r="C53" t="s">
+        <v>434</v>
+      </c>
       <c r="D53">
         <v>950</v>
       </c>
@@ -2729,6 +3131,9 @@
       <c r="B54" t="s">
         <v>122</v>
       </c>
+      <c r="C54" t="s">
+        <v>462</v>
+      </c>
       <c r="D54">
         <v>4000</v>
       </c>
@@ -2746,6 +3151,9 @@
       <c r="B55" t="s">
         <v>124</v>
       </c>
+      <c r="C55" t="s">
+        <v>435</v>
+      </c>
       <c r="D55">
         <v>600</v>
       </c>
@@ -2763,6 +3171,9 @@
       <c r="B56" t="s">
         <v>126</v>
       </c>
+      <c r="C56" t="s">
+        <v>463</v>
+      </c>
       <c r="D56">
         <v>400</v>
       </c>
@@ -2780,6 +3191,9 @@
       <c r="B57" t="s">
         <v>381</v>
       </c>
+      <c r="C57" t="s">
+        <v>464</v>
+      </c>
       <c r="D57">
         <v>4000</v>
       </c>
@@ -2797,6 +3211,9 @@
       <c r="B58" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="C58" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="D58" s="6">
         <v>3000</v>
       </c>
@@ -2814,6 +3231,9 @@
       <c r="B59" t="s">
         <v>131</v>
       </c>
+      <c r="C59" t="s">
+        <v>437</v>
+      </c>
       <c r="D59">
         <v>4500</v>
       </c>
@@ -2831,6 +3251,9 @@
       <c r="B60" t="s">
         <v>134</v>
       </c>
+      <c r="C60" t="s">
+        <v>438</v>
+      </c>
       <c r="D60">
         <v>900</v>
       </c>
@@ -2848,6 +3271,9 @@
       <c r="B61" t="s">
         <v>136</v>
       </c>
+      <c r="C61" t="s">
+        <v>439</v>
+      </c>
       <c r="D61">
         <v>1200</v>
       </c>
@@ -2865,6 +3291,9 @@
       <c r="B62" t="s">
         <v>138</v>
       </c>
+      <c r="C62" t="s">
+        <v>440</v>
+      </c>
       <c r="D62">
         <v>1200</v>
       </c>
@@ -2882,7 +3311,9 @@
       <c r="B63" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="D63" s="2">
         <v>600</v>
       </c>
@@ -2900,6 +3331,9 @@
       <c r="B64" t="s">
         <v>143</v>
       </c>
+      <c r="C64" t="s">
+        <v>466</v>
+      </c>
       <c r="D64">
         <v>4500</v>
       </c>
@@ -2917,6 +3351,9 @@
       <c r="B65" t="s">
         <v>145</v>
       </c>
+      <c r="C65" t="s">
+        <v>467</v>
+      </c>
       <c r="D65">
         <v>850</v>
       </c>
@@ -2934,6 +3371,9 @@
       <c r="B66" t="s">
         <v>147</v>
       </c>
+      <c r="C66" t="s">
+        <v>468</v>
+      </c>
       <c r="D66">
         <v>1200</v>
       </c>
@@ -2951,6 +3391,9 @@
       <c r="B67" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C67" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="D67" s="4">
         <v>900</v>
       </c>
@@ -2965,6 +3408,9 @@
       <c r="B68" t="s">
         <v>151</v>
       </c>
+      <c r="C68" t="s">
+        <v>470</v>
+      </c>
       <c r="D68">
         <v>300</v>
       </c>
@@ -2982,6 +3428,9 @@
       <c r="B69" t="s">
         <v>153</v>
       </c>
+      <c r="C69" t="s">
+        <v>471</v>
+      </c>
       <c r="D69">
         <v>1800</v>
       </c>
@@ -2999,6 +3448,9 @@
       <c r="B70" t="s">
         <v>155</v>
       </c>
+      <c r="C70" t="s">
+        <v>472</v>
+      </c>
       <c r="D70">
         <v>1200</v>
       </c>
@@ -3016,6 +3468,9 @@
       <c r="B71" t="s">
         <v>157</v>
       </c>
+      <c r="C71" t="s">
+        <v>473</v>
+      </c>
       <c r="D71">
         <v>1600</v>
       </c>
@@ -3033,6 +3488,9 @@
       <c r="B72" t="s">
         <v>382</v>
       </c>
+      <c r="C72" t="s">
+        <v>474</v>
+      </c>
       <c r="D72">
         <v>2500</v>
       </c>
@@ -3050,6 +3508,9 @@
       <c r="B73" t="s">
         <v>160</v>
       </c>
+      <c r="C73" t="s">
+        <v>475</v>
+      </c>
       <c r="D73">
         <v>12500</v>
       </c>
@@ -3067,6 +3528,9 @@
       <c r="B74" t="s">
         <v>163</v>
       </c>
+      <c r="C74" t="s">
+        <v>441</v>
+      </c>
       <c r="D74">
         <v>1300</v>
       </c>
@@ -3084,6 +3548,9 @@
       <c r="B75" t="s">
         <v>165</v>
       </c>
+      <c r="C75" t="s">
+        <v>442</v>
+      </c>
       <c r="D75">
         <v>800</v>
       </c>
@@ -3101,6 +3568,9 @@
       <c r="B76" t="s">
         <v>167</v>
       </c>
+      <c r="C76" t="s">
+        <v>443</v>
+      </c>
       <c r="D76">
         <v>750</v>
       </c>
@@ -3118,6 +3588,9 @@
       <c r="B77" t="s">
         <v>170</v>
       </c>
+      <c r="C77" t="s">
+        <v>444</v>
+      </c>
       <c r="D77">
         <v>750</v>
       </c>
@@ -3135,6 +3608,9 @@
       <c r="B78" t="s">
         <v>173</v>
       </c>
+      <c r="C78" t="s">
+        <v>476</v>
+      </c>
       <c r="D78">
         <v>2500</v>
       </c>
@@ -3152,6 +3628,9 @@
       <c r="B79" t="s">
         <v>175</v>
       </c>
+      <c r="C79" t="s">
+        <v>445</v>
+      </c>
       <c r="D79">
         <v>1750</v>
       </c>
@@ -3169,6 +3648,9 @@
       <c r="B80" t="s">
         <v>177</v>
       </c>
+      <c r="C80" t="s">
+        <v>477</v>
+      </c>
       <c r="D80">
         <v>1400</v>
       </c>
@@ -3186,6 +3668,9 @@
       <c r="B81" t="s">
         <v>180</v>
       </c>
+      <c r="C81" t="s">
+        <v>478</v>
+      </c>
       <c r="D81">
         <v>350</v>
       </c>
@@ -3203,6 +3688,9 @@
       <c r="B82" t="s">
         <v>182</v>
       </c>
+      <c r="C82" t="s">
+        <v>479</v>
+      </c>
       <c r="D82">
         <v>750</v>
       </c>
@@ -3220,6 +3708,9 @@
       <c r="B83" t="s">
         <v>184</v>
       </c>
+      <c r="C83" t="s">
+        <v>446</v>
+      </c>
       <c r="D83">
         <v>600</v>
       </c>
@@ -3237,6 +3728,9 @@
       <c r="B84" t="s">
         <v>186</v>
       </c>
+      <c r="C84" t="s">
+        <v>480</v>
+      </c>
       <c r="D84">
         <v>600</v>
       </c>
@@ -3254,6 +3748,9 @@
       <c r="B85" t="s">
         <v>188</v>
       </c>
+      <c r="C85" t="s">
+        <v>481</v>
+      </c>
       <c r="D85">
         <v>1200</v>
       </c>
@@ -3271,6 +3768,9 @@
       <c r="B86" t="s">
         <v>191</v>
       </c>
+      <c r="C86" t="s">
+        <v>447</v>
+      </c>
       <c r="D86">
         <v>300</v>
       </c>
@@ -3288,6 +3788,9 @@
       <c r="B87" t="s">
         <v>193</v>
       </c>
+      <c r="C87" t="s">
+        <v>482</v>
+      </c>
       <c r="D87">
         <v>1700</v>
       </c>
@@ -3305,6 +3808,9 @@
       <c r="B88" t="s">
         <v>195</v>
       </c>
+      <c r="C88" t="s">
+        <v>483</v>
+      </c>
       <c r="D88">
         <v>500</v>
       </c>
@@ -3322,6 +3828,9 @@
       <c r="B89" t="s">
         <v>203</v>
       </c>
+      <c r="C89" t="s">
+        <v>484</v>
+      </c>
       <c r="D89">
         <v>400</v>
       </c>
@@ -3339,6 +3848,9 @@
       <c r="B90" t="s">
         <v>198</v>
       </c>
+      <c r="C90" t="s">
+        <v>485</v>
+      </c>
       <c r="D90">
         <v>2750</v>
       </c>
@@ -3356,6 +3868,9 @@
       <c r="B91" t="s">
         <v>200</v>
       </c>
+      <c r="C91" t="s">
+        <v>486</v>
+      </c>
       <c r="D91">
         <v>3750</v>
       </c>
@@ -3373,6 +3888,9 @@
       <c r="B92" t="s">
         <v>205</v>
       </c>
+      <c r="C92" t="s">
+        <v>487</v>
+      </c>
       <c r="D92">
         <v>3500</v>
       </c>
@@ -3390,6 +3908,9 @@
       <c r="B93" t="s">
         <v>208</v>
       </c>
+      <c r="C93" t="s">
+        <v>488</v>
+      </c>
       <c r="D93">
         <v>20000</v>
       </c>
@@ -3407,6 +3928,9 @@
       <c r="B94" t="s">
         <v>383</v>
       </c>
+      <c r="C94" t="s">
+        <v>489</v>
+      </c>
       <c r="D94">
         <v>300</v>
       </c>
@@ -3424,6 +3948,9 @@
       <c r="B95" t="s">
         <v>211</v>
       </c>
+      <c r="C95" t="s">
+        <v>448</v>
+      </c>
       <c r="D95">
         <v>2500</v>
       </c>
@@ -3441,6 +3968,9 @@
       <c r="B96" t="s">
         <v>214</v>
       </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
       <c r="D96">
         <v>3000</v>
       </c>
@@ -3458,6 +3988,9 @@
       <c r="B97" t="s">
         <v>216</v>
       </c>
+      <c r="C97" t="s">
+        <v>458</v>
+      </c>
       <c r="D97">
         <v>750</v>
       </c>
@@ -3475,6 +4008,9 @@
       <c r="B98" t="s">
         <v>219</v>
       </c>
+      <c r="C98" t="s">
+        <v>450</v>
+      </c>
       <c r="D98">
         <v>350</v>
       </c>
@@ -3492,6 +4028,9 @@
       <c r="B99" t="s">
         <v>221</v>
       </c>
+      <c r="C99" t="s">
+        <v>490</v>
+      </c>
       <c r="D99">
         <v>4000</v>
       </c>
@@ -3509,6 +4048,9 @@
       <c r="B100" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="D100" s="2">
         <v>3500</v>
       </c>
@@ -3526,6 +4068,9 @@
       <c r="B101" t="s">
         <v>224</v>
       </c>
+      <c r="C101" t="s">
+        <v>492</v>
+      </c>
       <c r="D101">
         <v>2800</v>
       </c>
@@ -3543,6 +4088,9 @@
       <c r="B102" t="s">
         <v>375</v>
       </c>
+      <c r="C102" t="s">
+        <v>493</v>
+      </c>
       <c r="D102">
         <v>1200</v>
       </c>
@@ -3560,6 +4108,9 @@
       <c r="B103" t="s">
         <v>230</v>
       </c>
+      <c r="C103" t="s">
+        <v>451</v>
+      </c>
       <c r="D103">
         <v>300</v>
       </c>
@@ -3577,6 +4128,9 @@
       <c r="B104" t="s">
         <v>233</v>
       </c>
+      <c r="C104" t="s">
+        <v>452</v>
+      </c>
       <c r="D104">
         <v>1200</v>
       </c>
@@ -3594,6 +4148,9 @@
       <c r="B105" t="s">
         <v>235</v>
       </c>
+      <c r="C105" t="s">
+        <v>494</v>
+      </c>
       <c r="D105">
         <v>850</v>
       </c>
@@ -3611,6 +4168,9 @@
       <c r="B106" t="s">
         <v>239</v>
       </c>
+      <c r="C106" t="s">
+        <v>495</v>
+      </c>
       <c r="D106">
         <v>400</v>
       </c>
@@ -3628,6 +4188,9 @@
       <c r="B107" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="C107" s="2" t="s">
+        <v>496</v>
+      </c>
       <c r="D107" s="2">
         <v>2500</v>
       </c>
@@ -3645,6 +4208,9 @@
       <c r="B108" t="s">
         <v>241</v>
       </c>
+      <c r="C108" t="s">
+        <v>453</v>
+      </c>
       <c r="D108">
         <v>1000</v>
       </c>
@@ -3662,6 +4228,9 @@
       <c r="B109" t="s">
         <v>243</v>
       </c>
+      <c r="C109" t="s">
+        <v>497</v>
+      </c>
       <c r="D109">
         <v>400</v>
       </c>
@@ -3679,6 +4248,9 @@
       <c r="B110" t="s">
         <v>245</v>
       </c>
+      <c r="C110" t="s">
+        <v>498</v>
+      </c>
       <c r="D110">
         <v>1200</v>
       </c>
@@ -3696,6 +4268,9 @@
       <c r="B111" t="s">
         <v>247</v>
       </c>
+      <c r="C111" t="s">
+        <v>499</v>
+      </c>
       <c r="D111">
         <v>600</v>
       </c>
@@ -3713,6 +4288,9 @@
       <c r="B112" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="C112" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="D112" s="6">
         <v>4000</v>
       </c>
@@ -3730,6 +4308,9 @@
       <c r="B113" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="C113" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="D113" s="6">
         <v>3000</v>
       </c>
@@ -3747,6 +4328,9 @@
       <c r="B114" t="s">
         <v>253</v>
       </c>
+      <c r="C114" t="s">
+        <v>502</v>
+      </c>
       <c r="D114">
         <v>2000</v>
       </c>
@@ -3764,6 +4348,9 @@
       <c r="B115" t="s">
         <v>255</v>
       </c>
+      <c r="C115" t="s">
+        <v>503</v>
+      </c>
       <c r="D115">
         <v>5000</v>
       </c>
@@ -3781,6 +4368,9 @@
       <c r="B116" t="s">
         <v>256</v>
       </c>
+      <c r="C116" t="s">
+        <v>504</v>
+      </c>
       <c r="D116">
         <v>2200</v>
       </c>
@@ -3798,6 +4388,9 @@
       <c r="B117" t="s">
         <v>258</v>
       </c>
+      <c r="C117" t="s">
+        <v>505</v>
+      </c>
       <c r="D117">
         <v>1200</v>
       </c>
@@ -3815,6 +4408,9 @@
       <c r="B118" t="s">
         <v>260</v>
       </c>
+      <c r="C118" t="s">
+        <v>506</v>
+      </c>
       <c r="D118">
         <v>800</v>
       </c>
@@ -3832,6 +4428,9 @@
       <c r="B119" t="s">
         <v>264</v>
       </c>
+      <c r="C119" t="s">
+        <v>507</v>
+      </c>
       <c r="D119">
         <v>250</v>
       </c>
@@ -3849,6 +4448,9 @@
       <c r="B120" t="s">
         <v>262</v>
       </c>
+      <c r="C120" t="s">
+        <v>508</v>
+      </c>
       <c r="D120">
         <v>2500</v>
       </c>
@@ -3866,6 +4468,9 @@
       <c r="B121" t="s">
         <v>268</v>
       </c>
+      <c r="C121" t="s">
+        <v>509</v>
+      </c>
       <c r="D121">
         <v>800</v>
       </c>
@@ -3883,6 +4488,9 @@
       <c r="B122" t="s">
         <v>266</v>
       </c>
+      <c r="C122" t="s">
+        <v>510</v>
+      </c>
       <c r="D122">
         <v>800</v>
       </c>
@@ -3900,6 +4508,9 @@
       <c r="B123" t="s">
         <v>270</v>
       </c>
+      <c r="C123" t="s">
+        <v>511</v>
+      </c>
       <c r="D123">
         <v>500</v>
       </c>
@@ -3917,6 +4528,9 @@
       <c r="B124" t="s">
         <v>272</v>
       </c>
+      <c r="C124" t="s">
+        <v>512</v>
+      </c>
       <c r="D124">
         <v>2000</v>
       </c>
@@ -3934,6 +4548,9 @@
       <c r="B125" t="s">
         <v>278</v>
       </c>
+      <c r="C125" t="s">
+        <v>454</v>
+      </c>
       <c r="D125">
         <v>1200</v>
       </c>
@@ -3951,6 +4568,9 @@
       <c r="B126" t="s">
         <v>376</v>
       </c>
+      <c r="C126" t="s">
+        <v>513</v>
+      </c>
       <c r="D126">
         <v>5000</v>
       </c>
@@ -3968,6 +4588,9 @@
       <c r="B127" t="s">
         <v>377</v>
       </c>
+      <c r="C127" t="s">
+        <v>514</v>
+      </c>
       <c r="D127">
         <v>2000</v>
       </c>
@@ -3985,6 +4608,9 @@
       <c r="B128" t="s">
         <v>283</v>
       </c>
+      <c r="C128" t="s">
+        <v>455</v>
+      </c>
       <c r="D128">
         <v>1500</v>
       </c>
@@ -4002,6 +4628,9 @@
       <c r="B129" t="s">
         <v>281</v>
       </c>
+      <c r="C129" t="s">
+        <v>515</v>
+      </c>
       <c r="D129">
         <v>6000</v>
       </c>
@@ -4019,6 +4648,9 @@
       <c r="B130" s="6" t="s">
         <v>275</v>
       </c>
+      <c r="C130" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="D130" s="6">
         <v>300</v>
       </c>
@@ -4036,6 +4668,9 @@
       <c r="B131" s="6" t="s">
         <v>286</v>
       </c>
+      <c r="C131" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="D131" s="6">
         <v>800</v>
       </c>
@@ -4053,6 +4688,9 @@
       <c r="B132" t="s">
         <v>378</v>
       </c>
+      <c r="C132" t="s">
+        <v>457</v>
+      </c>
       <c r="D132">
         <v>3000</v>
       </c>
@@ -4070,6 +4708,9 @@
       <c r="B133" t="s">
         <v>289</v>
       </c>
+      <c r="C133" t="s">
+        <v>517</v>
+      </c>
       <c r="D133">
         <v>700</v>
       </c>
@@ -4087,6 +4728,9 @@
       <c r="B134" t="s">
         <v>289</v>
       </c>
+      <c r="C134" t="s">
+        <v>517</v>
+      </c>
       <c r="D134">
         <v>700</v>
       </c>
@@ -4104,6 +4748,9 @@
       <c r="B135" t="s">
         <v>289</v>
       </c>
+      <c r="C135" t="s">
+        <v>517</v>
+      </c>
       <c r="D135">
         <v>700</v>
       </c>
@@ -4121,6 +4768,9 @@
       <c r="B136" t="s">
         <v>289</v>
       </c>
+      <c r="C136" t="s">
+        <v>517</v>
+      </c>
       <c r="D136">
         <v>700</v>
       </c>
@@ -4138,6 +4788,9 @@
       <c r="B137" t="s">
         <v>289</v>
       </c>
+      <c r="C137" t="s">
+        <v>517</v>
+      </c>
       <c r="D137">
         <v>700</v>
       </c>
@@ -4155,6 +4808,9 @@
       <c r="B138" t="s">
         <v>295</v>
       </c>
+      <c r="C138" t="s">
+        <v>517</v>
+      </c>
       <c r="D138">
         <v>900</v>
       </c>
@@ -4172,6 +4828,9 @@
       <c r="B139" t="s">
         <v>297</v>
       </c>
+      <c r="C139" t="s">
+        <v>518</v>
+      </c>
       <c r="D139">
         <v>700</v>
       </c>
@@ -4189,6 +4848,9 @@
       <c r="B140" t="s">
         <v>297</v>
       </c>
+      <c r="C140" t="s">
+        <v>519</v>
+      </c>
       <c r="D140">
         <v>700</v>
       </c>
@@ -4206,6 +4868,9 @@
       <c r="B141" t="s">
         <v>300</v>
       </c>
+      <c r="C141" t="s">
+        <v>519</v>
+      </c>
       <c r="D141">
         <v>700</v>
       </c>
@@ -4223,6 +4888,9 @@
       <c r="B142" t="s">
         <v>302</v>
       </c>
+      <c r="C142" t="s">
+        <v>520</v>
+      </c>
       <c r="D142">
         <v>700</v>
       </c>
@@ -4240,6 +4908,9 @@
       <c r="B143" t="s">
         <v>302</v>
       </c>
+      <c r="C143" t="s">
+        <v>521</v>
+      </c>
       <c r="D143">
         <v>700</v>
       </c>
@@ -4257,6 +4928,9 @@
       <c r="B144" t="s">
         <v>305</v>
       </c>
+      <c r="C144" t="s">
+        <v>522</v>
+      </c>
       <c r="D144">
         <v>1400</v>
       </c>
@@ -4274,6 +4948,9 @@
       <c r="B145" t="s">
         <v>307</v>
       </c>
+      <c r="C145" t="s">
+        <v>523</v>
+      </c>
       <c r="D145">
         <v>700</v>
       </c>
@@ -4291,6 +4968,9 @@
       <c r="B146" s="6" t="s">
         <v>307</v>
       </c>
+      <c r="C146" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="D146" s="6">
         <v>700</v>
       </c>
@@ -4308,6 +4988,9 @@
       <c r="B147" s="6" t="s">
         <v>307</v>
       </c>
+      <c r="C147" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="D147" s="6">
         <v>700</v>
       </c>
@@ -4325,6 +5008,9 @@
       <c r="B148" s="6" t="s">
         <v>311</v>
       </c>
+      <c r="C148" s="6" t="s">
+        <v>524</v>
+      </c>
       <c r="D148" s="6">
         <v>700</v>
       </c>
@@ -4342,6 +5028,9 @@
       <c r="B149" s="6" t="s">
         <v>307</v>
       </c>
+      <c r="C149" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="D149" s="6">
         <v>700</v>
       </c>
@@ -4359,6 +5048,9 @@
       <c r="B150" t="s">
         <v>313</v>
       </c>
+      <c r="C150" t="s">
+        <v>525</v>
+      </c>
       <c r="D150">
         <v>500</v>
       </c>
@@ -4376,6 +5068,9 @@
       <c r="B151" t="s">
         <v>315</v>
       </c>
+      <c r="C151" t="s">
+        <v>526</v>
+      </c>
       <c r="D151">
         <v>800</v>
       </c>
@@ -4393,6 +5088,9 @@
       <c r="B152" t="s">
         <v>317</v>
       </c>
+      <c r="C152" t="s">
+        <v>527</v>
+      </c>
       <c r="D152">
         <v>800</v>
       </c>
@@ -4410,6 +5108,9 @@
       <c r="B153" t="s">
         <v>319</v>
       </c>
+      <c r="C153" t="s">
+        <v>528</v>
+      </c>
       <c r="D153">
         <v>350</v>
       </c>
@@ -4427,6 +5128,9 @@
       <c r="B154" t="s">
         <v>321</v>
       </c>
+      <c r="C154" t="s">
+        <v>529</v>
+      </c>
       <c r="D154">
         <v>2500</v>
       </c>
@@ -4444,6 +5148,9 @@
       <c r="B155" t="s">
         <v>323</v>
       </c>
+      <c r="C155" t="s">
+        <v>530</v>
+      </c>
       <c r="D155">
         <v>600</v>
       </c>
@@ -4461,6 +5168,9 @@
       <c r="B156" t="s">
         <v>384</v>
       </c>
+      <c r="C156" t="s">
+        <v>531</v>
+      </c>
       <c r="D156">
         <v>700</v>
       </c>
@@ -4478,6 +5188,9 @@
       <c r="B157" t="s">
         <v>326</v>
       </c>
+      <c r="C157" t="s">
+        <v>532</v>
+      </c>
       <c r="D157">
         <v>700</v>
       </c>
@@ -4495,6 +5208,9 @@
       <c r="B158" t="s">
         <v>216</v>
       </c>
+      <c r="C158" t="s">
+        <v>533</v>
+      </c>
       <c r="D158">
         <v>750</v>
       </c>
@@ -4512,6 +5228,9 @@
       <c r="B159" t="s">
         <v>329</v>
       </c>
+      <c r="C159" t="s">
+        <v>534</v>
+      </c>
       <c r="D159">
         <v>1200</v>
       </c>
@@ -4529,6 +5248,9 @@
       <c r="B160" t="s">
         <v>331</v>
       </c>
+      <c r="C160" t="s">
+        <v>535</v>
+      </c>
       <c r="D160">
         <v>600</v>
       </c>
@@ -4546,6 +5268,9 @@
       <c r="B161" t="s">
         <v>333</v>
       </c>
+      <c r="C161" t="s">
+        <v>536</v>
+      </c>
       <c r="D161">
         <v>750</v>
       </c>
@@ -4563,6 +5288,9 @@
       <c r="B162" t="s">
         <v>335</v>
       </c>
+      <c r="C162" t="s">
+        <v>537</v>
+      </c>
       <c r="D162">
         <v>800</v>
       </c>
@@ -4580,6 +5308,9 @@
       <c r="B163" t="s">
         <v>338</v>
       </c>
+      <c r="C163" t="s">
+        <v>538</v>
+      </c>
       <c r="D163">
         <v>1500</v>
       </c>
@@ -4597,6 +5328,9 @@
       <c r="B164" t="s">
         <v>340</v>
       </c>
+      <c r="C164" t="s">
+        <v>539</v>
+      </c>
       <c r="D164">
         <v>1200</v>
       </c>
@@ -4614,6 +5348,9 @@
       <c r="B165" t="s">
         <v>342</v>
       </c>
+      <c r="C165" t="s">
+        <v>540</v>
+      </c>
       <c r="D165">
         <v>1500</v>
       </c>
@@ -4631,6 +5368,9 @@
       <c r="B166" t="s">
         <v>344</v>
       </c>
+      <c r="C166" t="s">
+        <v>541</v>
+      </c>
       <c r="D166">
         <v>300</v>
       </c>
@@ -4648,6 +5388,9 @@
       <c r="B167" t="s">
         <v>347</v>
       </c>
+      <c r="C167" t="s">
+        <v>542</v>
+      </c>
       <c r="D167">
         <v>400</v>
       </c>
@@ -4665,6 +5408,9 @@
       <c r="B168" t="s">
         <v>349</v>
       </c>
+      <c r="C168" t="s">
+        <v>543</v>
+      </c>
       <c r="D168">
         <v>500</v>
       </c>
@@ -4682,6 +5428,9 @@
       <c r="B169" t="s">
         <v>351</v>
       </c>
+      <c r="C169" t="s">
+        <v>544</v>
+      </c>
       <c r="D169">
         <v>300</v>
       </c>
@@ -4699,6 +5448,9 @@
       <c r="B170" t="s">
         <v>354</v>
       </c>
+      <c r="C170" t="s">
+        <v>545</v>
+      </c>
       <c r="D170">
         <v>400</v>
       </c>
@@ -4716,6 +5468,9 @@
       <c r="B171" t="s">
         <v>356</v>
       </c>
+      <c r="C171" t="s">
+        <v>546</v>
+      </c>
       <c r="D171">
         <v>150</v>
       </c>
@@ -4733,6 +5488,9 @@
       <c r="B172" t="s">
         <v>358</v>
       </c>
+      <c r="C172" t="s">
+        <v>547</v>
+      </c>
       <c r="D172">
         <v>150</v>
       </c>
@@ -4750,6 +5508,9 @@
       <c r="B173" t="s">
         <v>360</v>
       </c>
+      <c r="C173" t="s">
+        <v>548</v>
+      </c>
       <c r="D173">
         <v>100</v>
       </c>
@@ -4767,6 +5528,9 @@
       <c r="B174" t="s">
         <v>362</v>
       </c>
+      <c r="C174" t="s">
+        <v>549</v>
+      </c>
       <c r="D174">
         <v>4000</v>
       </c>
@@ -4784,6 +5548,9 @@
       <c r="B175" t="s">
         <v>365</v>
       </c>
+      <c r="C175" t="s">
+        <v>550</v>
+      </c>
       <c r="D175">
         <v>1500</v>
       </c>
@@ -4801,6 +5568,9 @@
       <c r="B176" t="s">
         <v>367</v>
       </c>
+      <c r="C176" t="s">
+        <v>551</v>
+      </c>
       <c r="D176">
         <v>2500</v>
       </c>
@@ -4818,6 +5588,9 @@
       <c r="B177" t="s">
         <v>369</v>
       </c>
+      <c r="C177" t="s">
+        <v>552</v>
+      </c>
       <c r="D177">
         <v>500</v>
       </c>
@@ -4834,6 +5607,9 @@
       </c>
       <c r="B178" t="s">
         <v>371</v>
+      </c>
+      <c r="C178" t="s">
+        <v>553</v>
       </c>
       <c r="D178">
         <v>300</v>
